--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177295</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177295</v>
+        <v>3940022.790763222</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.0185868</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E8" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F8" t="n">
         <v>404.8896287080119</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
         <v>347.8590406130752</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S12" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1624,7 +1624,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
         <v>397.8840054528454</v>
@@ -1788,49 +1788,49 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F20" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U23" t="n">
         <v>648.751427201877</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C26" t="n">
         <v>449.4745782429939</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210685126</v>
+        <v>359.620476777522</v>
       </c>
       <c r="T29" t="n">
         <v>560.9649184118391</v>
@@ -2857,7 +2857,7 @@
         <v>648.7514272017352</v>
       </c>
       <c r="V29" t="n">
-        <v>628.4626798756916</v>
+        <v>629.851024166682</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759808057</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3094,7 +3094,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3210,52 +3210,52 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V35" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W35" t="n">
         <v>638.3734759809475</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3447,49 +3447,49 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3921,43 +3921,43 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4339,16 +4339,16 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L2" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M2" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N2" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O2" t="n">
         <v>5638.428524337362</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4497,13 +4497,13 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
         <v>457.4949902104935</v>
@@ -4564,37 +4564,37 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K5" t="n">
-        <v>1936.671378010443</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010443</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4740,13 +4740,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>438.463966970767</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4795,43 +4795,43 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4968,22 +4968,22 @@
         <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,19 +5023,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
         <v>492.3327682960356</v>
@@ -5047,25 +5047,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010443</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q11" t="n">
         <v>6931.116362236997</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5235,10 +5235,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
         <v>140.96</v>
@@ -5260,16 +5260,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
         <v>894.2358041069906</v>
@@ -5287,19 +5287,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P14" t="n">
         <v>6474.295852434775</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5478,16 +5478,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5527,19 +5527,19 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236997</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5685,46 +5685,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5761,25 +5761,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>6211.542572088078</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5922,43 +5922,43 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
         <v>140.96</v>
@@ -5971,52 +5971,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>3681.051378010443</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>4163.230577523946</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6025,22 +6025,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,25 +6129,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
         <v>140.96</v>
@@ -6192,13 +6192,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6238,22 +6238,22 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L26" t="n">
-        <v>2332.601309399844</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M26" t="n">
-        <v>3077.533789260046</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5116.765732410181</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
@@ -6396,34 +6396,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6466,25 +6466,25 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2257.013012360075</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M29" t="n">
-        <v>2739.192211873577</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.235275746249</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O29" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P29" t="n">
         <v>6474.295852434775</v>
@@ -6496,13 +6496,13 @@
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.34462518332</v>
+        <v>6684.746993154018</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464291</v>
+        <v>6118.115762434989</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543346</v>
+        <v>5462.811290514044</v>
       </c>
       <c r="V29" t="n">
         <v>4826.598134790122</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6633,46 +6633,46 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6718,16 +6718,16 @@
         <v>2739.192211873577</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.235275746249</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O32" t="n">
-        <v>4214.390158686993</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P32" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
@@ -6742,16 +6742,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6903,13 +6903,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,52 +6919,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K35" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L35" t="n">
-        <v>3071.357825473565</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M35" t="n">
-        <v>3553.537024987068</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N35" t="n">
-        <v>4118.58008885974</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O35" t="n">
-        <v>5028.734971800483</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
         <v>7048</v>
@@ -6979,16 +6979,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7137,16 +7137,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7183,25 +7183,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1677.76186642996</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>2595.354589746543</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R38" t="n">
         <v>7048</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7359,25 +7359,25 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
         <v>140.96</v>
@@ -7396,16 +7396,16 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7414,31 +7414,31 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1936.671378010443</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7605,22 +7605,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7657,49 +7657,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3797.935015773446</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7818,40 +7818,40 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
         <v>140.96</v>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>265.407353885553</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633165826</v>
+        <v>409.3070180254626</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>459.8234496459305</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>315.9139665186111</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
-        <v>645.1956588512421</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,13 +9184,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>29.34358558166855</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9409,16 +9409,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>383.4716344542434</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>603.283928249446</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,16 +9658,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>609.5571242689077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,25 +9886,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M26" t="n">
-        <v>265.4073538855533</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>29.14432035687412</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>567.8446588919046</v>
+        <v>526.932113057758</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10366,19 +10366,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>822.5705182964543</v>
+        <v>459.8234496459304</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>29.34358558166878</v>
+        <v>29.51871305977443</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>265.4073538855536</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>419.8640113926992</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>96.62737647160202</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>940.6347988651447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633165826</v>
+        <v>763.2599394199324</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S12" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23718,7 +23718,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>107.6476277959926</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>65.81344491253614</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23986,13 +23986,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24201,7 +24201,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="23">
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>107.6476277959926</v>
@@ -24660,13 +24660,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>199.1703102162162</v>
+        <v>65.81344491253614</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344290990574</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.388344290990403</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>107.6476277959926</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>65.41081595667603</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q40" t="n">
-        <v>505.228266425598</v>
+        <v>490.8301642385968</v>
       </c>
       <c r="R40" t="n">
         <v>608.1413738827905</v>
@@ -25611,7 +25611,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
@@ -25620,7 +25620,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y40" t="n">
         <v>287.4653528494624</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26094,7 +26094,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y46" t="n">
         <v>287.4653528494624</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929388</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.7835895476</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.00002980131</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791082</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485918</v>
+        <v>5921079.801415535</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.18445738811</v>
+        <v>7020921.675039981</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.548664425</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.640742446</v>
+        <v>9220605.422288867</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591331</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275021</v>
+        <v>11420289.16953805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.825170031</v>
+        <v>12520131.04316249</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.5533125599</v>
+        <v>13619972.91678694</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.281455089</v>
+        <v>14719814.79041141</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976182</v>
+        <v>15819656.66403587</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401474</v>
+        <v>16919498.53766034</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577603</v>
       </c>
       <c r="E2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="F2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="G2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="I2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="J2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632589</v>
+      </c>
+      <c r="L2" t="n">
         <v>874233.2841630246</v>
       </c>
-      <c r="F2" t="n">
-        <v>874233.2841630245</v>
-      </c>
-      <c r="G2" t="n">
-        <v>874233.2841630246</v>
-      </c>
-      <c r="H2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="I2" t="n">
-        <v>874233.284163025</v>
-      </c>
-      <c r="J2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="K2" t="n">
-        <v>874233.2841632587</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="M2" t="n">
-        <v>874233.284163025</v>
-      </c>
       <c r="N2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="O2" t="n">
         <v>874233.2841630246</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26435,22 +26435,22 @@
         <v>38928.93672769592</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="G4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672786299</v>
+        <v>38928.936727863</v>
       </c>
       <c r="L4" t="n">
         <v>38928.93672769591</v>
@@ -26459,10 +26459,10 @@
         <v>38928.93672769592</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="P4" t="n">
         <v>38928.93672769592</v>
@@ -26530,46 +26530,46 @@
         <v>-1355510.071693067</v>
       </c>
       <c r="C6" t="n">
-        <v>689490.8793614138</v>
+        <v>689490.8793614137</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313468</v>
+        <v>689793.2400313463</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="F6" t="n">
-        <v>696324.9474353286</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="G6" t="n">
-        <v>696324.9474353287</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="H6" t="n">
+        <v>696324.9474353291</v>
+      </c>
+      <c r="I6" t="n">
         <v>696324.947435329</v>
       </c>
-      <c r="I6" t="n">
-        <v>696324.9474353291</v>
-      </c>
       <c r="J6" t="n">
-        <v>76100.94743532897</v>
+        <v>76100.94743532885</v>
       </c>
       <c r="K6" t="n">
         <v>696324.9474353958</v>
       </c>
       <c r="L6" t="n">
+        <v>696324.9474353287</v>
+      </c>
+      <c r="M6" t="n">
         <v>696324.9474353289</v>
       </c>
-      <c r="M6" t="n">
-        <v>696324.9474353291</v>
-      </c>
       <c r="N6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353289</v>
       </c>
       <c r="O6" t="n">
         <v>696324.9474353287</v>
       </c>
       <c r="P6" t="n">
-        <v>696324.947435329</v>
+        <v>696324.9474353287</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,19 +27144,19 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27702,7 +27702,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27936,16 +27936,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>388.0294482079483</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28164,13 +28164,13 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>151.8271516309749</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -28182,7 +28182,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34831,19 +34831,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1184.755720492365</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
@@ -34989,7 +34989,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>168.7357375896767</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34998,7 +34998,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>1336.16835470888</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35232,16 +35232,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,22 +35299,22 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1572.05699553466</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>946.8731461242162</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35326,7 +35326,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35460,13 +35460,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35539,19 +35539,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>886.6645360869669</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1410.84121030703</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36019,7 +36019,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.05699553466</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36028,13 +36028,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>948.6919521884806</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36253,16 +36253,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,10 +36271,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>844.9064928403257</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1350.398214681607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,16 +36502,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>919.3483666068121</v>
+        <v>1528.90549087572</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36730,25 +36730,25 @@
         <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M26" t="n">
-        <v>752.457050363839</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>873.4547527785041</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,16 +36958,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36976,10 +36976,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1487.193025498716</v>
+        <v>1446.28047966457</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37210,19 +37210,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1666.880950718084</v>
+        <v>1304.133882067561</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,22 +37432,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>956.2049222650858</v>
+        <v>956.3800497431916</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37456,10 +37456,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,16 +37675,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1012.521640317714</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,10 +37693,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>881.2988697787815</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,19 +37906,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>843.741662903763</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1427.68449534343</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37930,10 +37930,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>1762</v>
+        <v>1690.12127610335</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38170,7 +38170,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
